--- a/biology/Botanique/Arbos_Anima/Arbos_Anima.xlsx
+++ b/biology/Botanique/Arbos_Anima/Arbos_Anima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbos Anima (アルボスアニマ, Arubosu anima?) est un seinen manga de Kachou Hashimoto, prépublié dans le magazine Monthly Comic Ryū depuis 2015 et publié en volumes reliés par l'éditeur Tokuma Shoten depuis juillet 2015. La version française est éditée par Glénat depuis juillet 2016.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,6 +580,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -589,9 +607,11 @@
           <t>Réception critique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, pour IGN, « le lecteur n'est pas forcément captivé, mais en revanche charmé par une ambiance renforcée d'un trait élégant qui colle parfaitement au propos. La mangaka Kachou Hashimoto se fait plaisir avec les dessins des plantes et des fleurs qui parsèment l'intrigue, mais aussi avec les tenues des personnages »[3]. Selon MCM.fr, « que ce soit au travers de ses décors enchanteurs, ou du caractère complètement dingue de ses personnages, Arbos Anima est une lecture pour le moins rafraîchissante. On se plonge avec plaisir dans cet univers inhabituel au scénario un peu fou, où se mêle humour, passion, sérieux et cupidité »[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, pour IGN, « le lecteur n'est pas forcément captivé, mais en revanche charmé par une ambiance renforcée d'un trait élégant qui colle parfaitement au propos. La mangaka Kachou Hashimoto se fait plaisir avec les dessins des plantes et des fleurs qui parsèment l'intrigue, mais aussi avec les tenues des personnages ». Selon MCM.fr, « que ce soit au travers de ses décors enchanteurs, ou du caractère complètement dingue de ses personnages, Arbos Anima est une lecture pour le moins rafraîchissante. On se plonge avec plaisir dans cet univers inhabituel au scénario un peu fou, où se mêle humour, passion, sérieux et cupidité ».
 </t>
         </is>
       </c>
